--- a/Code/Results/Cases/Case_2_85/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_85/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9890475705178253</v>
+        <v>1.024845523301198</v>
       </c>
       <c r="D2">
-        <v>1.00889498818949</v>
+        <v>1.028843176377545</v>
       </c>
       <c r="E2">
-        <v>1.011178866622559</v>
+        <v>1.04939128669869</v>
       </c>
       <c r="F2">
-        <v>1.015935760293483</v>
+        <v>1.0539553926095</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039068562708315</v>
+        <v>1.031261377530222</v>
       </c>
       <c r="J2">
-        <v>1.011560875630797</v>
+        <v>1.03001785757573</v>
       </c>
       <c r="K2">
-        <v>1.020231777167173</v>
+        <v>1.031658815516127</v>
       </c>
       <c r="L2">
-        <v>1.022484628336462</v>
+        <v>1.052148475415983</v>
       </c>
       <c r="M2">
-        <v>1.027177460674784</v>
+        <v>1.056699933778067</v>
       </c>
       <c r="N2">
-        <v>1.007569022537995</v>
+        <v>1.013997919318864</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9943359820208376</v>
+        <v>1.025935959692008</v>
       </c>
       <c r="D3">
-        <v>1.012584593261031</v>
+        <v>1.029617139707675</v>
       </c>
       <c r="E3">
-        <v>1.016297164274617</v>
+        <v>1.050543389608113</v>
       </c>
       <c r="F3">
-        <v>1.02129183143639</v>
+        <v>1.055150252087689</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040309858379848</v>
+        <v>1.031449767668057</v>
       </c>
       <c r="J3">
-        <v>1.014982253905466</v>
+        <v>1.030746646645621</v>
       </c>
       <c r="K3">
-        <v>1.02305894479511</v>
+        <v>1.032240891231112</v>
       </c>
       <c r="L3">
-        <v>1.026725681416623</v>
+        <v>1.0531119374238</v>
       </c>
       <c r="M3">
-        <v>1.031659339006003</v>
+        <v>1.057706964228979</v>
       </c>
       <c r="N3">
-        <v>1.008737423685971</v>
+        <v>1.01424349075887</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9976770147547481</v>
+        <v>1.026641392387307</v>
       </c>
       <c r="D4">
-        <v>1.014918108775534</v>
+        <v>1.030117654949132</v>
       </c>
       <c r="E4">
-        <v>1.019541564299522</v>
+        <v>1.05128959477715</v>
       </c>
       <c r="F4">
-        <v>1.024684760243456</v>
+        <v>1.055923953303652</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041083039771377</v>
+        <v>1.031570219809092</v>
       </c>
       <c r="J4">
-        <v>1.017140329973445</v>
+        <v>1.031217542711388</v>
       </c>
       <c r="K4">
-        <v>1.0248397587522</v>
+        <v>1.032616587082912</v>
       </c>
       <c r="L4">
-        <v>1.029409724837789</v>
+        <v>1.053735498795974</v>
       </c>
       <c r="M4">
-        <v>1.034494117871353</v>
+        <v>1.058358555012205</v>
       </c>
       <c r="N4">
-        <v>1.00947394792525</v>
+        <v>1.014402049341685</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9990630162835993</v>
+        <v>1.026937920556542</v>
       </c>
       <c r="D5">
-        <v>1.015886682965067</v>
+        <v>1.030328001622628</v>
       </c>
       <c r="E5">
-        <v>1.0208900400291</v>
+        <v>1.051603471821205</v>
       </c>
       <c r="F5">
-        <v>1.026094448428354</v>
+        <v>1.056249348976793</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041401092300829</v>
+        <v>1.031620510913578</v>
       </c>
       <c r="J5">
-        <v>1.018034723394509</v>
+        <v>1.03141534499957</v>
       </c>
       <c r="K5">
-        <v>1.025577187631783</v>
+        <v>1.03277430305574</v>
       </c>
       <c r="L5">
-        <v>1.030524264479843</v>
+        <v>1.053997677326133</v>
       </c>
       <c r="M5">
-        <v>1.03567084713396</v>
+        <v>1.058632478261946</v>
       </c>
       <c r="N5">
-        <v>1.009779076009983</v>
+        <v>1.014468625335148</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9992946656545186</v>
+        <v>1.026987706868335</v>
       </c>
       <c r="D6">
-        <v>1.016048594737474</v>
+        <v>1.030363315644378</v>
       </c>
       <c r="E6">
-        <v>1.021115567050836</v>
+        <v>1.051656183284893</v>
       </c>
       <c r="F6">
-        <v>1.026330182505257</v>
+        <v>1.056303992083652</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041454090070967</v>
+        <v>1.03162893466124</v>
       </c>
       <c r="J6">
-        <v>1.018184155558086</v>
+        <v>1.03144854735517</v>
       </c>
       <c r="K6">
-        <v>1.025700358067929</v>
+        <v>1.032800770973568</v>
       </c>
       <c r="L6">
-        <v>1.030710605706809</v>
+        <v>1.054041700224748</v>
       </c>
       <c r="M6">
-        <v>1.035867562221233</v>
+        <v>1.058678470872965</v>
       </c>
       <c r="N6">
-        <v>1.009830048665656</v>
+        <v>1.014479798926092</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9976956065079522</v>
+        <v>1.026645354750644</v>
       </c>
       <c r="D7">
-        <v>1.014931099173422</v>
+        <v>1.03012046588688</v>
       </c>
       <c r="E7">
-        <v>1.01955964260714</v>
+        <v>1.051293788139428</v>
       </c>
       <c r="F7">
-        <v>1.024703661245309</v>
+        <v>1.055928300738294</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041087316833775</v>
+        <v>1.031570893164809</v>
       </c>
       <c r="J7">
-        <v>1.017152330808577</v>
+        <v>1.03122018639321</v>
       </c>
       <c r="K7">
-        <v>1.024849655910568</v>
+        <v>1.0326186953818</v>
       </c>
       <c r="L7">
-        <v>1.029424670978772</v>
+        <v>1.053739001906704</v>
       </c>
       <c r="M7">
-        <v>1.034509899576681</v>
+        <v>1.058362215209081</v>
       </c>
       <c r="N7">
-        <v>1.009478042560037</v>
+        <v>1.014402939255742</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9908520698113581</v>
+        <v>1.025214073449095</v>
       </c>
       <c r="D8">
-        <v>1.010153360502982</v>
+        <v>1.029104800927504</v>
       </c>
       <c r="E8">
-        <v>1.012923016879419</v>
+        <v>1.049780497063738</v>
       </c>
       <c r="F8">
-        <v>1.01776139886796</v>
+        <v>1.05435908805996</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039494400769582</v>
+        <v>1.031325344791606</v>
       </c>
       <c r="J8">
-        <v>1.012729003454191</v>
+        <v>1.030264295996724</v>
       </c>
       <c r="K8">
-        <v>1.02119753231529</v>
+        <v>1.031855726572744</v>
       </c>
       <c r="L8">
-        <v>1.023930737416212</v>
+        <v>1.052474053854997</v>
       </c>
       <c r="M8">
-        <v>1.028706037600158</v>
+        <v>1.057040269982601</v>
       </c>
       <c r="N8">
-        <v>1.007968030597117</v>
+        <v>1.014080982251343</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9781342625368104</v>
+        <v>1.022690768750859</v>
       </c>
       <c r="D9">
-        <v>1.001298928155224</v>
+        <v>1.027312855915029</v>
       </c>
       <c r="E9">
-        <v>1.000678658243688</v>
+        <v>1.047119352852269</v>
       </c>
       <c r="F9">
-        <v>1.00493543412306</v>
+        <v>1.051598095560749</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036448201759281</v>
+        <v>1.03088156523723</v>
       </c>
       <c r="J9">
-        <v>1.004483508401777</v>
+        <v>1.028574684454535</v>
       </c>
       <c r="K9">
-        <v>1.014370966251226</v>
+        <v>1.03050403515171</v>
       </c>
       <c r="L9">
-        <v>1.013760734279132</v>
+        <v>1.050246079475803</v>
       </c>
       <c r="M9">
-        <v>1.017948941664311</v>
+        <v>1.054710616048975</v>
       </c>
       <c r="N9">
-        <v>1.005149871266116</v>
+        <v>1.013511030156329</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9691540088979442</v>
+        <v>1.021007703297526</v>
       </c>
       <c r="D10">
-        <v>0.9950690812458356</v>
+        <v>1.026116753261636</v>
       </c>
       <c r="E10">
-        <v>0.9920963625972729</v>
+        <v>1.045348891973186</v>
       </c>
       <c r="F10">
-        <v>0.9959330498640877</v>
+        <v>1.049760186020431</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034242346313155</v>
+        <v>1.030578259823878</v>
       </c>
       <c r="J10">
-        <v>0.9986472605044769</v>
+        <v>1.027444758750736</v>
       </c>
       <c r="K10">
-        <v>1.009527939361511</v>
+        <v>1.029598039184417</v>
       </c>
       <c r="L10">
-        <v>1.006609801186866</v>
+        <v>1.048761417262984</v>
       </c>
       <c r="M10">
-        <v>1.010376124663758</v>
+        <v>1.053157330881377</v>
       </c>
       <c r="N10">
-        <v>1.003153350745506</v>
+        <v>1.01312929890693</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9651318162416195</v>
+        <v>1.020278700241392</v>
       </c>
       <c r="D11">
-        <v>0.9922855161799082</v>
+        <v>1.025598480791448</v>
       </c>
       <c r="E11">
-        <v>0.9882683596180395</v>
+        <v>1.044583115131548</v>
       </c>
       <c r="F11">
-        <v>0.9919146144881772</v>
+        <v>1.048964992712425</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033242147329857</v>
+        <v>1.030445158346531</v>
       </c>
       <c r="J11">
-        <v>0.9960307028365208</v>
+        <v>1.026954649931512</v>
       </c>
       <c r="K11">
-        <v>1.007354397675068</v>
+        <v>1.029204577725751</v>
       </c>
       <c r="L11">
-        <v>1.003414961410739</v>
+        <v>1.048118688598167</v>
       </c>
       <c r="M11">
-        <v>1.006990637303847</v>
+        <v>1.052484689068702</v>
       </c>
       <c r="N11">
-        <v>1.002257937212629</v>
+        <v>1.012963586566835</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9636163312391521</v>
+        <v>1.02000788110875</v>
       </c>
       <c r="D12">
-        <v>0.9912378644997647</v>
+        <v>1.025405918517907</v>
       </c>
       <c r="E12">
-        <v>0.9868285172234059</v>
+        <v>1.044298797425227</v>
       </c>
       <c r="F12">
-        <v>0.9904026741631909</v>
+        <v>1.04866971666519</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032863530087943</v>
+        <v>1.03039545287183</v>
       </c>
       <c r="J12">
-        <v>0.9950445223276289</v>
+        <v>1.026772474510435</v>
       </c>
       <c r="K12">
-        <v>1.006534880766823</v>
+        <v>1.029058254319529</v>
       </c>
       <c r="L12">
-        <v>1.002212488733651</v>
+        <v>1.047879970731402</v>
       </c>
       <c r="M12">
-        <v>1.005716082910569</v>
+        <v>1.052234830207282</v>
       </c>
       <c r="N12">
-        <v>1.00192041816685</v>
+        <v>1.012901970431439</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.963942402703088</v>
+        <v>1.020065974332254</v>
       </c>
       <c r="D13">
-        <v>0.9914632232773962</v>
+        <v>1.025447226167078</v>
       </c>
       <c r="E13">
-        <v>0.987138200267622</v>
+        <v>1.044359778856025</v>
       </c>
       <c r="F13">
-        <v>0.9907278855182373</v>
+        <v>1.048733050135806</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032945071636334</v>
+        <v>1.030406126886593</v>
       </c>
       <c r="J13">
-        <v>0.9952567216430173</v>
+        <v>1.026811557519273</v>
       </c>
       <c r="K13">
-        <v>1.006711232014283</v>
+        <v>1.029089649076679</v>
       </c>
       <c r="L13">
-        <v>1.002471153321113</v>
+        <v>1.047931175624559</v>
       </c>
       <c r="M13">
-        <v>1.005990267777729</v>
+        <v>1.052288426236004</v>
       </c>
       <c r="N13">
-        <v>1.001993044659366</v>
+        <v>1.012915190162364</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9650069920463308</v>
+        <v>1.020256314967052</v>
       </c>
       <c r="D14">
-        <v>0.9921992014960985</v>
+        <v>1.025582564610423</v>
       </c>
       <c r="E14">
-        <v>0.9881497150267946</v>
+        <v>1.044559610778254</v>
       </c>
       <c r="F14">
-        <v>0.9917900385580929</v>
+        <v>1.048940583187592</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033210997539163</v>
+        <v>1.03044105509588</v>
       </c>
       <c r="J14">
-        <v>0.9959494811618523</v>
+        <v>1.026939593851504</v>
       </c>
       <c r="K14">
-        <v>1.007286908473195</v>
+        <v>1.029192486143872</v>
       </c>
       <c r="L14">
-        <v>1.003315892238627</v>
+        <v>1.048098955698067</v>
       </c>
       <c r="M14">
-        <v>1.006885636099477</v>
+        <v>1.052464035861028</v>
       </c>
       <c r="N14">
-        <v>1.002230139904248</v>
+        <v>1.012958494647381</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9656600331847158</v>
+        <v>1.02037358544874</v>
       </c>
       <c r="D15">
-        <v>0.9926508202187728</v>
+        <v>1.02566594409827</v>
       </c>
       <c r="E15">
-        <v>0.9887705277070842</v>
+        <v>1.044682750476491</v>
       </c>
       <c r="F15">
-        <v>0.9924418680044848</v>
+        <v>1.049068463595229</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033373892221787</v>
+        <v>1.030462540315823</v>
       </c>
       <c r="J15">
-        <v>0.9963743952871773</v>
+        <v>1.027018464394911</v>
       </c>
       <c r="K15">
-        <v>1.007639968283177</v>
+        <v>1.029255824354103</v>
       </c>
       <c r="L15">
-        <v>1.003834243818345</v>
+        <v>1.048202333187407</v>
       </c>
       <c r="M15">
-        <v>1.007435012088629</v>
+        <v>1.052572233429953</v>
       </c>
       <c r="N15">
-        <v>1.002375561050925</v>
+        <v>1.012985167594046</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9694180170960994</v>
+        <v>1.021056079995328</v>
       </c>
       <c r="D16">
-        <v>0.9952519393695157</v>
+        <v>1.026151141888406</v>
       </c>
       <c r="E16">
-        <v>0.9923479626028713</v>
+        <v>1.045399731769353</v>
       </c>
       <c r="F16">
-        <v>0.9961971017448642</v>
+        <v>1.04981297364241</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034307749517319</v>
+        <v>1.030587056075726</v>
       </c>
       <c r="J16">
-        <v>0.9988189587650182</v>
+        <v>1.027477267848113</v>
       </c>
       <c r="K16">
-        <v>1.009670522415057</v>
+        <v>1.029624127490063</v>
       </c>
       <c r="L16">
-        <v>1.006819676642865</v>
+        <v>1.048804075923125</v>
       </c>
       <c r="M16">
-        <v>1.010598479087728</v>
+        <v>1.053201970584404</v>
       </c>
       <c r="N16">
-        <v>1.003212101942518</v>
+        <v>1.013140287830734</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9717385747190048</v>
+        <v>1.021484129817082</v>
       </c>
       <c r="D17">
-        <v>0.9968599903658301</v>
+        <v>1.026455399441849</v>
       </c>
       <c r="E17">
-        <v>0.9945612741297133</v>
+        <v>1.045849700589685</v>
       </c>
       <c r="F17">
-        <v>0.9985196028139177</v>
+        <v>1.050280154033728</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03488124803234</v>
+        <v>1.030664688114633</v>
       </c>
       <c r="J17">
-        <v>1.00032785756121</v>
+        <v>1.027764836976872</v>
       </c>
       <c r="K17">
-        <v>1.010923300236279</v>
+        <v>1.029854843860648</v>
       </c>
       <c r="L17">
-        <v>1.008665340687515</v>
+        <v>1.049181570099776</v>
       </c>
       <c r="M17">
-        <v>1.012553638640007</v>
+        <v>1.053596971634011</v>
       </c>
       <c r="N17">
-        <v>1.003728377728213</v>
+        <v>1.013237478114739</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9730793176659353</v>
+        <v>1.021733782444803</v>
       </c>
       <c r="D18">
-        <v>0.9977896984302069</v>
+        <v>1.026632833743363</v>
       </c>
       <c r="E18">
-        <v>0.9958415559761838</v>
+        <v>1.046112241326173</v>
       </c>
       <c r="F18">
-        <v>0.9998627558030789</v>
+        <v>1.050552713660177</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035211437248816</v>
+        <v>1.030709798960984</v>
       </c>
       <c r="J18">
-        <v>1.001199405078197</v>
+        <v>1.027932489826148</v>
       </c>
       <c r="K18">
-        <v>1.011646693940425</v>
+        <v>1.029989304977304</v>
       </c>
       <c r="L18">
-        <v>1.009732457735917</v>
+        <v>1.049401769617911</v>
       </c>
       <c r="M18">
-        <v>1.013683858681192</v>
+        <v>1.053827363420561</v>
       </c>
       <c r="N18">
-        <v>1.004026550693649</v>
+        <v>1.013294127025279</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9735343453089235</v>
+        <v>1.021818903913292</v>
       </c>
       <c r="D19">
-        <v>0.998105329990109</v>
+        <v>1.026693328487812</v>
       </c>
       <c r="E19">
-        <v>0.9962763166122451</v>
+        <v>1.046201774791652</v>
       </c>
       <c r="F19">
-        <v>1.000318817591238</v>
+        <v>1.050645659863023</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03532329960104</v>
+        <v>1.030725151655735</v>
       </c>
       <c r="J19">
-        <v>1.001495151348457</v>
+        <v>1.027989641329164</v>
       </c>
       <c r="K19">
-        <v>1.011892128732819</v>
+        <v>1.030035133777724</v>
       </c>
       <c r="L19">
-        <v>1.010094746328365</v>
+        <v>1.049476854287191</v>
       </c>
       <c r="M19">
-        <v>1.014067536202483</v>
+        <v>1.053905920135153</v>
       </c>
       <c r="N19">
-        <v>1.004127725651525</v>
+        <v>1.013313435965879</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9714909342869215</v>
+        <v>1.021438206363932</v>
       </c>
       <c r="D20">
-        <v>0.9966883196067893</v>
+        <v>1.026422758999875</v>
       </c>
       <c r="E20">
-        <v>0.9943249220693064</v>
+        <v>1.045801414766732</v>
       </c>
       <c r="F20">
-        <v>0.9982716208449963</v>
+        <v>1.050230023675391</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034820166491619</v>
+        <v>1.030656376578369</v>
       </c>
       <c r="J20">
-        <v>1.000166859022902</v>
+        <v>1.027733991949275</v>
       </c>
       <c r="K20">
-        <v>1.010789651952908</v>
+        <v>1.02983010174649</v>
       </c>
       <c r="L20">
-        <v>1.008468300337876</v>
+        <v>1.049141067151372</v>
       </c>
       <c r="M20">
-        <v>1.012344929952587</v>
+        <v>1.053554592349383</v>
       </c>
       <c r="N20">
-        <v>1.00367329453211</v>
+        <v>1.013227054710503</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9646941012214213</v>
+        <v>1.020200265368292</v>
       </c>
       <c r="D21">
-        <v>0.9919828594608258</v>
+        <v>1.025542712268884</v>
       </c>
       <c r="E21">
-        <v>0.9878523544577975</v>
+        <v>1.044500761789784</v>
       </c>
       <c r="F21">
-        <v>0.9914778045896613</v>
+        <v>1.048879467285765</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033132887752339</v>
+        <v>1.03043077694234</v>
       </c>
       <c r="J21">
-        <v>0.9957458819123753</v>
+        <v>1.026901893857414</v>
       </c>
       <c r="K21">
-        <v>1.007117727699126</v>
+        <v>1.029162208003453</v>
       </c>
       <c r="L21">
-        <v>1.003067581204213</v>
+        <v>1.048049548097965</v>
       </c>
       <c r="M21">
-        <v>1.006622451524851</v>
+        <v>1.052412323479312</v>
       </c>
       <c r="N21">
-        <v>1.00216045951783</v>
+        <v>1.012945744300872</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9602957039494</v>
+        <v>1.019421719994123</v>
       </c>
       <c r="D22">
-        <v>0.98894457520848</v>
+        <v>1.024989086510683</v>
       </c>
       <c r="E22">
-        <v>0.9836782853999657</v>
+        <v>1.043683717639408</v>
       </c>
       <c r="F22">
-        <v>0.9870938226533799</v>
+        <v>1.04803086310549</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032030771552743</v>
+        <v>1.030287396470497</v>
       </c>
       <c r="J22">
-        <v>0.9928831785921851</v>
+        <v>1.026377984691105</v>
       </c>
       <c r="K22">
-        <v>1.004738270315952</v>
+        <v>1.028741268171453</v>
       </c>
       <c r="L22">
-        <v>0.999580164193146</v>
+        <v>1.047363383070207</v>
       </c>
       <c r="M22">
-        <v>1.002925363643038</v>
+        <v>1.051694076907205</v>
       </c>
       <c r="N22">
-        <v>1.001180642672225</v>
+        <v>1.012768507627221</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9626397161871458</v>
+        <v>1.01983446124368</v>
       </c>
       <c r="D23">
-        <v>0.9905630713699959</v>
+        <v>1.025282602920608</v>
       </c>
       <c r="E23">
-        <v>0.9859013564388623</v>
+        <v>1.044116779514669</v>
       </c>
       <c r="F23">
-        <v>0.9894289534300237</v>
+        <v>1.048480673000328</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032619053097599</v>
+        <v>1.030363550864935</v>
       </c>
       <c r="J23">
-        <v>0.9944089251561786</v>
+        <v>1.026655788775469</v>
       </c>
       <c r="K23">
-        <v>1.006006616016136</v>
+        <v>1.02896451198545</v>
       </c>
       <c r="L23">
-        <v>1.001437957890532</v>
+        <v>1.04772712138734</v>
       </c>
       <c r="M23">
-        <v>1.004895031146348</v>
+        <v>1.052074838677511</v>
       </c>
       <c r="N23">
-        <v>1.001702876455771</v>
+        <v>1.012862498823276</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9716028717897823</v>
+        <v>1.021458957261993</v>
       </c>
       <c r="D24">
-        <v>0.996765915642056</v>
+        <v>1.026437507915495</v>
       </c>
       <c r="E24">
-        <v>0.9944317523896489</v>
+        <v>1.045823232799431</v>
       </c>
       <c r="F24">
-        <v>0.9983837087399812</v>
+        <v>1.050252675237013</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034847779944867</v>
+        <v>1.030660132730929</v>
       </c>
       <c r="J24">
-        <v>1.000239633746935</v>
+        <v>1.027747929740708</v>
       </c>
       <c r="K24">
-        <v>1.010850064462676</v>
+        <v>1.029841281988286</v>
       </c>
       <c r="L24">
-        <v>1.008557363452462</v>
+        <v>1.049159368648165</v>
       </c>
       <c r="M24">
-        <v>1.012439267842254</v>
+        <v>1.053573741741039</v>
       </c>
       <c r="N24">
-        <v>1.003698193390215</v>
+        <v>1.013231764723403</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9815059417600711</v>
+        <v>1.023343251621929</v>
       </c>
       <c r="D25">
-        <v>1.003642964609397</v>
+        <v>1.027776377343587</v>
       </c>
       <c r="E25">
-        <v>1.003914155719372</v>
+        <v>1.04780667866926</v>
       </c>
       <c r="F25">
-        <v>1.008326724394026</v>
+        <v>1.052311389904202</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037265463361748</v>
+        <v>1.030997606801023</v>
       </c>
       <c r="J25">
-        <v>1.006672146897463</v>
+        <v>1.02901210852059</v>
       </c>
       <c r="K25">
-        <v>1.016184990251127</v>
+        <v>1.03085433795131</v>
       </c>
       <c r="L25">
-        <v>1.016452011824455</v>
+        <v>1.050821946373695</v>
       </c>
       <c r="M25">
-        <v>1.020797139384729</v>
+        <v>1.055312916950846</v>
       </c>
       <c r="N25">
-        <v>1.005898250883926</v>
+        <v>1.013658687215156</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_85/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_85/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024845523301198</v>
+        <v>0.9890475705178254</v>
       </c>
       <c r="D2">
-        <v>1.028843176377545</v>
+        <v>1.00889498818949</v>
       </c>
       <c r="E2">
-        <v>1.04939128669869</v>
+        <v>1.011178866622559</v>
       </c>
       <c r="F2">
-        <v>1.0539553926095</v>
+        <v>1.015935760293483</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031261377530222</v>
+        <v>1.039068562708315</v>
       </c>
       <c r="J2">
-        <v>1.03001785757573</v>
+        <v>1.011560875630797</v>
       </c>
       <c r="K2">
-        <v>1.031658815516127</v>
+        <v>1.020231777167174</v>
       </c>
       <c r="L2">
-        <v>1.052148475415983</v>
+        <v>1.022484628336462</v>
       </c>
       <c r="M2">
-        <v>1.056699933778067</v>
+        <v>1.027177460674784</v>
       </c>
       <c r="N2">
-        <v>1.013997919318864</v>
+        <v>1.007569022537995</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025935959692008</v>
+        <v>0.9943359820208377</v>
       </c>
       <c r="D3">
-        <v>1.029617139707675</v>
+        <v>1.012584593261031</v>
       </c>
       <c r="E3">
-        <v>1.050543389608113</v>
+        <v>1.016297164274617</v>
       </c>
       <c r="F3">
-        <v>1.055150252087689</v>
+        <v>1.021291831436389</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031449767668057</v>
+        <v>1.040309858379848</v>
       </c>
       <c r="J3">
-        <v>1.030746646645621</v>
+        <v>1.014982253905466</v>
       </c>
       <c r="K3">
-        <v>1.032240891231112</v>
+        <v>1.02305894479511</v>
       </c>
       <c r="L3">
-        <v>1.0531119374238</v>
+        <v>1.026725681416623</v>
       </c>
       <c r="M3">
-        <v>1.057706964228979</v>
+        <v>1.031659339006003</v>
       </c>
       <c r="N3">
-        <v>1.01424349075887</v>
+        <v>1.008737423685971</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026641392387307</v>
+        <v>0.9976770147547471</v>
       </c>
       <c r="D4">
-        <v>1.030117654949132</v>
+        <v>1.014918108775534</v>
       </c>
       <c r="E4">
-        <v>1.05128959477715</v>
+        <v>1.019541564299521</v>
       </c>
       <c r="F4">
-        <v>1.055923953303652</v>
+        <v>1.024684760243456</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031570219809092</v>
+        <v>1.041083039771377</v>
       </c>
       <c r="J4">
-        <v>1.031217542711388</v>
+        <v>1.017140329973444</v>
       </c>
       <c r="K4">
-        <v>1.032616587082912</v>
+        <v>1.024839758752199</v>
       </c>
       <c r="L4">
-        <v>1.053735498795974</v>
+        <v>1.029409724837789</v>
       </c>
       <c r="M4">
-        <v>1.058358555012205</v>
+        <v>1.034494117871353</v>
       </c>
       <c r="N4">
-        <v>1.014402049341685</v>
+        <v>1.009473947925249</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026937920556542</v>
+        <v>0.9990630162835997</v>
       </c>
       <c r="D5">
-        <v>1.030328001622628</v>
+        <v>1.015886682965067</v>
       </c>
       <c r="E5">
-        <v>1.051603471821205</v>
+        <v>1.0208900400291</v>
       </c>
       <c r="F5">
-        <v>1.056249348976793</v>
+        <v>1.026094448428354</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031620510913578</v>
+        <v>1.04140109230083</v>
       </c>
       <c r="J5">
-        <v>1.03141534499957</v>
+        <v>1.018034723394509</v>
       </c>
       <c r="K5">
-        <v>1.03277430305574</v>
+        <v>1.025577187631783</v>
       </c>
       <c r="L5">
-        <v>1.053997677326133</v>
+        <v>1.030524264479843</v>
       </c>
       <c r="M5">
-        <v>1.058632478261946</v>
+        <v>1.035670847133961</v>
       </c>
       <c r="N5">
-        <v>1.014468625335148</v>
+        <v>1.009779076009984</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026987706868335</v>
+        <v>0.9992946656545194</v>
       </c>
       <c r="D6">
-        <v>1.030363315644378</v>
+        <v>1.016048594737475</v>
       </c>
       <c r="E6">
-        <v>1.051656183284893</v>
+        <v>1.021115567050836</v>
       </c>
       <c r="F6">
-        <v>1.056303992083652</v>
+        <v>1.026330182505258</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03162893466124</v>
+        <v>1.041454090070967</v>
       </c>
       <c r="J6">
-        <v>1.03144854735517</v>
+        <v>1.018184155558087</v>
       </c>
       <c r="K6">
-        <v>1.032800770973568</v>
+        <v>1.02570035806793</v>
       </c>
       <c r="L6">
-        <v>1.054041700224748</v>
+        <v>1.03071060570681</v>
       </c>
       <c r="M6">
-        <v>1.058678470872965</v>
+        <v>1.035867562221234</v>
       </c>
       <c r="N6">
-        <v>1.014479798926092</v>
+        <v>1.009830048665656</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026645354750644</v>
+        <v>0.997695606507952</v>
       </c>
       <c r="D7">
-        <v>1.03012046588688</v>
+        <v>1.014931099173422</v>
       </c>
       <c r="E7">
-        <v>1.051293788139428</v>
+        <v>1.01955964260714</v>
       </c>
       <c r="F7">
-        <v>1.055928300738294</v>
+        <v>1.024703661245309</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031570893164809</v>
+        <v>1.041087316833775</v>
       </c>
       <c r="J7">
-        <v>1.03122018639321</v>
+        <v>1.017152330808577</v>
       </c>
       <c r="K7">
-        <v>1.0326186953818</v>
+        <v>1.024849655910568</v>
       </c>
       <c r="L7">
-        <v>1.053739001906704</v>
+        <v>1.029424670978772</v>
       </c>
       <c r="M7">
-        <v>1.058362215209081</v>
+        <v>1.034509899576681</v>
       </c>
       <c r="N7">
-        <v>1.014402939255742</v>
+        <v>1.009478042560037</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025214073449095</v>
+        <v>0.9908520698113586</v>
       </c>
       <c r="D8">
-        <v>1.029104800927504</v>
+        <v>1.010153360502983</v>
       </c>
       <c r="E8">
-        <v>1.049780497063738</v>
+        <v>1.01292301687942</v>
       </c>
       <c r="F8">
-        <v>1.05435908805996</v>
+        <v>1.01776139886796</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031325344791606</v>
+        <v>1.039494400769582</v>
       </c>
       <c r="J8">
-        <v>1.030264295996724</v>
+        <v>1.012729003454192</v>
       </c>
       <c r="K8">
-        <v>1.031855726572744</v>
+        <v>1.021197532315291</v>
       </c>
       <c r="L8">
-        <v>1.052474053854997</v>
+        <v>1.023930737416212</v>
       </c>
       <c r="M8">
-        <v>1.057040269982601</v>
+        <v>1.028706037600158</v>
       </c>
       <c r="N8">
-        <v>1.014080982251343</v>
+        <v>1.007968030597117</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.022690768750859</v>
+        <v>0.978134262536811</v>
       </c>
       <c r="D9">
-        <v>1.027312855915029</v>
+        <v>1.001298928155224</v>
       </c>
       <c r="E9">
-        <v>1.047119352852269</v>
+        <v>1.000678658243689</v>
       </c>
       <c r="F9">
-        <v>1.051598095560749</v>
+        <v>1.004935434123061</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03088156523723</v>
+        <v>1.036448201759281</v>
       </c>
       <c r="J9">
-        <v>1.028574684454535</v>
+        <v>1.004483508401777</v>
       </c>
       <c r="K9">
-        <v>1.03050403515171</v>
+        <v>1.014370966251227</v>
       </c>
       <c r="L9">
-        <v>1.050246079475803</v>
+        <v>1.013760734279132</v>
       </c>
       <c r="M9">
-        <v>1.054710616048975</v>
+        <v>1.017948941664312</v>
       </c>
       <c r="N9">
-        <v>1.013511030156329</v>
+        <v>1.005149871266117</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.021007703297526</v>
+        <v>0.9691540088979456</v>
       </c>
       <c r="D10">
-        <v>1.026116753261636</v>
+        <v>0.9950690812458368</v>
       </c>
       <c r="E10">
-        <v>1.045348891973186</v>
+        <v>0.9920963625972741</v>
       </c>
       <c r="F10">
-        <v>1.049760186020431</v>
+        <v>0.9959330498640889</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030578259823878</v>
+        <v>1.034242346313155</v>
       </c>
       <c r="J10">
-        <v>1.027444758750736</v>
+        <v>0.9986472605044782</v>
       </c>
       <c r="K10">
-        <v>1.029598039184417</v>
+        <v>1.009527939361512</v>
       </c>
       <c r="L10">
-        <v>1.048761417262984</v>
+        <v>1.006609801186868</v>
       </c>
       <c r="M10">
-        <v>1.053157330881377</v>
+        <v>1.010376124663759</v>
       </c>
       <c r="N10">
-        <v>1.01312929890693</v>
+        <v>1.003153350745506</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.020278700241392</v>
+        <v>0.9651318162416195</v>
       </c>
       <c r="D11">
-        <v>1.025598480791448</v>
+        <v>0.9922855161799085</v>
       </c>
       <c r="E11">
-        <v>1.044583115131548</v>
+        <v>0.9882683596180396</v>
       </c>
       <c r="F11">
-        <v>1.048964992712425</v>
+        <v>0.991914614488177</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030445158346531</v>
+        <v>1.033242147329857</v>
       </c>
       <c r="J11">
-        <v>1.026954649931512</v>
+        <v>0.996030702836521</v>
       </c>
       <c r="K11">
-        <v>1.029204577725751</v>
+        <v>1.007354397675068</v>
       </c>
       <c r="L11">
-        <v>1.048118688598167</v>
+        <v>1.003414961410739</v>
       </c>
       <c r="M11">
-        <v>1.052484689068702</v>
+        <v>1.006990637303847</v>
       </c>
       <c r="N11">
-        <v>1.012963586566835</v>
+        <v>1.002257937212629</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.02000788110875</v>
+        <v>0.9636163312391509</v>
       </c>
       <c r="D12">
-        <v>1.025405918517907</v>
+        <v>0.9912378644997638</v>
       </c>
       <c r="E12">
-        <v>1.044298797425227</v>
+        <v>0.986828517223406</v>
       </c>
       <c r="F12">
-        <v>1.04866971666519</v>
+        <v>0.9904026741631914</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03039545287183</v>
+        <v>1.032863530087942</v>
       </c>
       <c r="J12">
-        <v>1.026772474510435</v>
+        <v>0.9950445223276279</v>
       </c>
       <c r="K12">
-        <v>1.029058254319529</v>
+        <v>1.006534880766822</v>
       </c>
       <c r="L12">
-        <v>1.047879970731402</v>
+        <v>1.002212488733651</v>
       </c>
       <c r="M12">
-        <v>1.052234830207282</v>
+        <v>1.00571608291057</v>
       </c>
       <c r="N12">
-        <v>1.012901970431439</v>
+        <v>1.001920418166849</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.020065974332254</v>
+        <v>0.9639424027030878</v>
       </c>
       <c r="D13">
-        <v>1.025447226167078</v>
+        <v>0.9914632232773962</v>
       </c>
       <c r="E13">
-        <v>1.044359778856025</v>
+        <v>0.9871382002676213</v>
       </c>
       <c r="F13">
-        <v>1.048733050135806</v>
+        <v>0.9907278855182368</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030406126886593</v>
+        <v>1.032945071636334</v>
       </c>
       <c r="J13">
-        <v>1.026811557519273</v>
+        <v>0.9952567216430173</v>
       </c>
       <c r="K13">
-        <v>1.029089649076679</v>
+        <v>1.006711232014283</v>
       </c>
       <c r="L13">
-        <v>1.047931175624559</v>
+        <v>1.002471153321112</v>
       </c>
       <c r="M13">
-        <v>1.052288426236004</v>
+        <v>1.005990267777729</v>
       </c>
       <c r="N13">
-        <v>1.012915190162364</v>
+        <v>1.001993044659367</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020256314967052</v>
+        <v>0.9650069920463314</v>
       </c>
       <c r="D14">
-        <v>1.025582564610423</v>
+        <v>0.992199201496099</v>
       </c>
       <c r="E14">
-        <v>1.044559610778254</v>
+        <v>0.9881497150267941</v>
       </c>
       <c r="F14">
-        <v>1.048940583187592</v>
+        <v>0.9917900385580926</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03044105509588</v>
+        <v>1.033210997539163</v>
       </c>
       <c r="J14">
-        <v>1.026939593851504</v>
+        <v>0.995949481161853</v>
       </c>
       <c r="K14">
-        <v>1.029192486143872</v>
+        <v>1.007286908473195</v>
       </c>
       <c r="L14">
-        <v>1.048098955698067</v>
+        <v>1.003315892238627</v>
       </c>
       <c r="M14">
-        <v>1.052464035861028</v>
+        <v>1.006885636099476</v>
       </c>
       <c r="N14">
-        <v>1.012958494647381</v>
+        <v>1.002230139904248</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02037358544874</v>
+        <v>0.9656600331847158</v>
       </c>
       <c r="D15">
-        <v>1.02566594409827</v>
+        <v>0.9926508202187725</v>
       </c>
       <c r="E15">
-        <v>1.044682750476491</v>
+        <v>0.988770527707084</v>
       </c>
       <c r="F15">
-        <v>1.049068463595229</v>
+        <v>0.9924418680044842</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030462540315823</v>
+        <v>1.033373892221787</v>
       </c>
       <c r="J15">
-        <v>1.027018464394911</v>
+        <v>0.9963743952871772</v>
       </c>
       <c r="K15">
-        <v>1.029255824354103</v>
+        <v>1.007639968283177</v>
       </c>
       <c r="L15">
-        <v>1.048202333187407</v>
+        <v>1.003834243818345</v>
       </c>
       <c r="M15">
-        <v>1.052572233429953</v>
+        <v>1.007435012088629</v>
       </c>
       <c r="N15">
-        <v>1.012985167594046</v>
+        <v>1.002375561050925</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021056079995328</v>
+        <v>0.9694180170960999</v>
       </c>
       <c r="D16">
-        <v>1.026151141888406</v>
+        <v>0.9952519393695159</v>
       </c>
       <c r="E16">
-        <v>1.045399731769353</v>
+        <v>0.9923479626028715</v>
       </c>
       <c r="F16">
-        <v>1.04981297364241</v>
+        <v>0.9961971017448648</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030587056075726</v>
+        <v>1.034307749517319</v>
       </c>
       <c r="J16">
-        <v>1.027477267848113</v>
+        <v>0.9988189587650186</v>
       </c>
       <c r="K16">
-        <v>1.029624127490063</v>
+        <v>1.009670522415058</v>
       </c>
       <c r="L16">
-        <v>1.048804075923125</v>
+        <v>1.006819676642866</v>
       </c>
       <c r="M16">
-        <v>1.053201970584404</v>
+        <v>1.010598479087728</v>
       </c>
       <c r="N16">
-        <v>1.013140287830734</v>
+        <v>1.003212101942518</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.021484129817082</v>
+        <v>0.9717385747190056</v>
       </c>
       <c r="D17">
-        <v>1.026455399441849</v>
+        <v>0.9968599903658303</v>
       </c>
       <c r="E17">
-        <v>1.045849700589685</v>
+        <v>0.9945612741297137</v>
       </c>
       <c r="F17">
-        <v>1.050280154033728</v>
+        <v>0.9985196028139183</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030664688114633</v>
+        <v>1.03488124803234</v>
       </c>
       <c r="J17">
-        <v>1.027764836976872</v>
+        <v>1.00032785756121</v>
       </c>
       <c r="K17">
-        <v>1.029854843860648</v>
+        <v>1.01092330023628</v>
       </c>
       <c r="L17">
-        <v>1.049181570099776</v>
+        <v>1.008665340687516</v>
       </c>
       <c r="M17">
-        <v>1.053596971634011</v>
+        <v>1.012553638640007</v>
       </c>
       <c r="N17">
-        <v>1.013237478114739</v>
+        <v>1.003728377728213</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.021733782444803</v>
+        <v>0.9730793176659355</v>
       </c>
       <c r="D18">
-        <v>1.026632833743363</v>
+        <v>0.9977896984302074</v>
       </c>
       <c r="E18">
-        <v>1.046112241326173</v>
+        <v>0.9958415559761841</v>
       </c>
       <c r="F18">
-        <v>1.050552713660177</v>
+        <v>0.9998627558030792</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030709798960984</v>
+        <v>1.035211437248816</v>
       </c>
       <c r="J18">
-        <v>1.027932489826148</v>
+        <v>1.001199405078198</v>
       </c>
       <c r="K18">
-        <v>1.029989304977304</v>
+        <v>1.011646693940426</v>
       </c>
       <c r="L18">
-        <v>1.049401769617911</v>
+        <v>1.009732457735917</v>
       </c>
       <c r="M18">
-        <v>1.053827363420561</v>
+        <v>1.013683858681192</v>
       </c>
       <c r="N18">
-        <v>1.013294127025279</v>
+        <v>1.004026550693649</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.021818903913292</v>
+        <v>0.9735343453089238</v>
       </c>
       <c r="D19">
-        <v>1.026693328487812</v>
+        <v>0.9981053299901091</v>
       </c>
       <c r="E19">
-        <v>1.046201774791652</v>
+        <v>0.9962763166122456</v>
       </c>
       <c r="F19">
-        <v>1.050645659863023</v>
+        <v>1.000318817591239</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030725151655735</v>
+        <v>1.03532329960104</v>
       </c>
       <c r="J19">
-        <v>1.027989641329164</v>
+        <v>1.001495151348457</v>
       </c>
       <c r="K19">
-        <v>1.030035133777724</v>
+        <v>1.01189212873282</v>
       </c>
       <c r="L19">
-        <v>1.049476854287191</v>
+        <v>1.010094746328366</v>
       </c>
       <c r="M19">
-        <v>1.053905920135153</v>
+        <v>1.014067536202484</v>
       </c>
       <c r="N19">
-        <v>1.013313435965879</v>
+        <v>1.004127725651525</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.021438206363932</v>
+        <v>0.9714909342869215</v>
       </c>
       <c r="D20">
-        <v>1.026422758999875</v>
+        <v>0.9966883196067894</v>
       </c>
       <c r="E20">
-        <v>1.045801414766732</v>
+        <v>0.9943249220693066</v>
       </c>
       <c r="F20">
-        <v>1.050230023675391</v>
+        <v>0.9982716208449963</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030656376578369</v>
+        <v>1.03482016649162</v>
       </c>
       <c r="J20">
-        <v>1.027733991949275</v>
+        <v>1.000166859022902</v>
       </c>
       <c r="K20">
-        <v>1.02983010174649</v>
+        <v>1.010789651952909</v>
       </c>
       <c r="L20">
-        <v>1.049141067151372</v>
+        <v>1.008468300337876</v>
       </c>
       <c r="M20">
-        <v>1.053554592349383</v>
+        <v>1.012344929952587</v>
       </c>
       <c r="N20">
-        <v>1.013227054710503</v>
+        <v>1.00367329453211</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.020200265368292</v>
+        <v>0.9646941012214216</v>
       </c>
       <c r="D21">
-        <v>1.025542712268884</v>
+        <v>0.9919828594608262</v>
       </c>
       <c r="E21">
-        <v>1.044500761789784</v>
+        <v>0.9878523544577967</v>
       </c>
       <c r="F21">
-        <v>1.048879467285765</v>
+        <v>0.9914778045896607</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03043077694234</v>
+        <v>1.033132887752339</v>
       </c>
       <c r="J21">
-        <v>1.026901893857414</v>
+        <v>0.9957458819123758</v>
       </c>
       <c r="K21">
-        <v>1.029162208003453</v>
+        <v>1.007117727699126</v>
       </c>
       <c r="L21">
-        <v>1.048049548097965</v>
+        <v>1.003067581204212</v>
       </c>
       <c r="M21">
-        <v>1.052412323479312</v>
+        <v>1.00662245152485</v>
       </c>
       <c r="N21">
-        <v>1.012945744300872</v>
+        <v>1.00216045951783</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.019421719994123</v>
+        <v>0.9602957039494007</v>
       </c>
       <c r="D22">
-        <v>1.024989086510683</v>
+        <v>0.9889445752084807</v>
       </c>
       <c r="E22">
-        <v>1.043683717639408</v>
+        <v>0.9836782853999667</v>
       </c>
       <c r="F22">
-        <v>1.04803086310549</v>
+        <v>0.9870938226533812</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030287396470497</v>
+        <v>1.032030771552744</v>
       </c>
       <c r="J22">
-        <v>1.026377984691105</v>
+        <v>0.9928831785921857</v>
       </c>
       <c r="K22">
-        <v>1.028741268171453</v>
+        <v>1.004738270315953</v>
       </c>
       <c r="L22">
-        <v>1.047363383070207</v>
+        <v>0.9995801641931471</v>
       </c>
       <c r="M22">
-        <v>1.051694076907205</v>
+        <v>1.00292536364304</v>
       </c>
       <c r="N22">
-        <v>1.012768507627221</v>
+        <v>1.001180642672225</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.01983446124368</v>
+        <v>0.9626397161871459</v>
       </c>
       <c r="D23">
-        <v>1.025282602920608</v>
+        <v>0.9905630713699958</v>
       </c>
       <c r="E23">
-        <v>1.044116779514669</v>
+        <v>0.9859013564388628</v>
       </c>
       <c r="F23">
-        <v>1.048480673000328</v>
+        <v>0.9894289534300241</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030363550864935</v>
+        <v>1.032619053097599</v>
       </c>
       <c r="J23">
-        <v>1.026655788775469</v>
+        <v>0.9944089251561785</v>
       </c>
       <c r="K23">
-        <v>1.02896451198545</v>
+        <v>1.006006616016136</v>
       </c>
       <c r="L23">
-        <v>1.04772712138734</v>
+        <v>1.001437957890532</v>
       </c>
       <c r="M23">
-        <v>1.052074838677511</v>
+        <v>1.004895031146349</v>
       </c>
       <c r="N23">
-        <v>1.012862498823276</v>
+        <v>1.001702876455771</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.021458957261993</v>
+        <v>0.9716028717897842</v>
       </c>
       <c r="D24">
-        <v>1.026437507915495</v>
+        <v>0.9967659156420575</v>
       </c>
       <c r="E24">
-        <v>1.045823232799431</v>
+        <v>0.9944317523896501</v>
       </c>
       <c r="F24">
-        <v>1.050252675237013</v>
+        <v>0.9983837087399824</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030660132730929</v>
+        <v>1.034847779944867</v>
       </c>
       <c r="J24">
-        <v>1.027747929740708</v>
+        <v>1.000239633746937</v>
       </c>
       <c r="K24">
-        <v>1.029841281988286</v>
+        <v>1.010850064462677</v>
       </c>
       <c r="L24">
-        <v>1.049159368648165</v>
+        <v>1.008557363452463</v>
       </c>
       <c r="M24">
-        <v>1.053573741741039</v>
+        <v>1.012439267842255</v>
       </c>
       <c r="N24">
-        <v>1.013231764723403</v>
+        <v>1.003698193390216</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.023343251621929</v>
+        <v>0.981505941760072</v>
       </c>
       <c r="D25">
-        <v>1.027776377343587</v>
+        <v>1.003642964609397</v>
       </c>
       <c r="E25">
-        <v>1.04780667866926</v>
+        <v>1.003914155719373</v>
       </c>
       <c r="F25">
-        <v>1.052311389904202</v>
+        <v>1.008326724394027</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030997606801023</v>
+        <v>1.037265463361749</v>
       </c>
       <c r="J25">
-        <v>1.02901210852059</v>
+        <v>1.006672146897464</v>
       </c>
       <c r="K25">
-        <v>1.03085433795131</v>
+        <v>1.016184990251128</v>
       </c>
       <c r="L25">
-        <v>1.050821946373695</v>
+        <v>1.016452011824455</v>
       </c>
       <c r="M25">
-        <v>1.055312916950846</v>
+        <v>1.02079713938473</v>
       </c>
       <c r="N25">
-        <v>1.013658687215156</v>
+        <v>1.005898250883926</v>
       </c>
     </row>
   </sheetData>
